--- a/02_config/scenario_pv_60_hp_60_ev_60_consumer_10_summer_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_consumer_10_summer_naive/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>myt1nTEHTvmS4ns</t>
+    <t>Y72kJojJfmjZC6O</t>
   </si>
   <si>
     <t>000019889.csv</t>
@@ -1589,7 +1589,7 @@
     <t>clustering_represented_group/share</t>
   </si>
   <si>
-    <t>['sfh_38', 'sfh_10', 'sfh_14', 'sfh_33', 'sfh_1', 'sfh_8', 'sfh_11', 'sfh_2', 'sfh_24', 'sfh_4']</t>
+    <t>['sfh_34', 'sfh_12', 'sfh_24', 'sfh_10', 'sfh_20', 'sfh_14', 'sfh_33', 'sfh_9', 'sfh_18', 'sfh_11']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2844,7 +2844,7 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
@@ -3016,7 +3016,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3349,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3358,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3371,11 +3371,8 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>328</v>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -3531,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3723,7 +3720,7 @@
         <v>488</v>
       </c>
       <c r="IN3">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3774,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3783,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3796,11 +3793,8 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>328</v>
+      <c r="G4">
+        <v>3</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -3956,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4148,7 +4142,7 @@
         <v>488</v>
       </c>
       <c r="IN4">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4199,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4208,7 +4202,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4221,11 +4215,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4234,7 +4228,7 @@
         <v>2.6</v>
       </c>
       <c r="K5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4393,7 +4387,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4675,7 +4669,7 @@
         <v>488</v>
       </c>
       <c r="IN5">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4732,7 +4726,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4741,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>503</v>
@@ -4808,14 +4802,11 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>328</v>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4824,7 +4815,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4968,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5160,7 +5151,7 @@
         <v>488</v>
       </c>
       <c r="IN6">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5211,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5220,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5233,11 +5224,11 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>4</v>
+      <c r="G7">
+        <v>3</v>
       </c>
       <c r="H7">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5246,7 +5237,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5405,7 +5396,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5687,7 +5678,7 @@
         <v>488</v>
       </c>
       <c r="IN7">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5738,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5747,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5760,7 +5751,7 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
@@ -5932,7 +5923,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -6214,7 +6205,7 @@
         <v>488</v>
       </c>
       <c r="IN8">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6271,7 +6262,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6286,7 +6277,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM8" t="s">
         <v>504</v>
@@ -6326,11 +6317,11 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
-        <v>4</v>
+      <c r="G9">
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6339,7 +6330,7 @@
         <v>2.6</v>
       </c>
       <c r="K9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6498,7 +6489,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6780,7 +6771,7 @@
         <v>488</v>
       </c>
       <c r="IN9">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6831,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6840,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>505</v>
@@ -6880,11 +6871,8 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
-      </c>
-      <c r="G10" t="s">
-        <v>328</v>
       </c>
       <c r="H10">
         <v>130</v>
@@ -7040,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -7232,7 +7220,7 @@
         <v>488</v>
       </c>
       <c r="IN10">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7283,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7292,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7305,7 +7293,10 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="s">
+        <v>328</v>
+      </c>
+      <c r="G11">
         <v>4</v>
       </c>
       <c r="H11">
@@ -7462,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7654,7 +7645,7 @@
         <v>488</v>
       </c>
       <c r="IN11">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7705,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7714,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7727,11 +7718,11 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>328</v>
+      </c>
+      <c r="G12">
         <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>328</v>
       </c>
       <c r="H12">
         <v>130</v>
@@ -7887,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -8079,7 +8070,7 @@
         <v>488</v>
       </c>
       <c r="IN12">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8130,7 +8121,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8139,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:290">
@@ -8152,11 +8143,11 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="s">
+        <v>328</v>
+      </c>
+      <c r="G13">
         <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>328</v>
       </c>
       <c r="H13">
         <v>130</v>
@@ -8312,7 +8303,7 @@
         <v>0</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8504,7 +8495,7 @@
         <v>488</v>
       </c>
       <c r="IN13">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8555,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8564,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8577,7 +8568,10 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="s">
+        <v>328</v>
+      </c>
+      <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
@@ -8734,7 +8728,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8926,7 +8920,7 @@
         <v>488</v>
       </c>
       <c r="IN14">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -8977,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -8986,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -8999,7 +8993,7 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3</v>
       </c>
       <c r="H15">
@@ -9171,7 +9165,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9426,7 +9420,7 @@
         <v>488</v>
       </c>
       <c r="IN15">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9477,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9486,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9499,14 +9493,14 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>328</v>
       </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
       <c r="H16">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -9515,7 +9509,7 @@
         <v>2.6</v>
       </c>
       <c r="K16">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -9659,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -9851,7 +9845,7 @@
         <v>488</v>
       </c>
       <c r="IN16">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9902,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -9911,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:290">
@@ -9924,11 +9918,11 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
-        <v>4</v>
+      <c r="G17">
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -9937,7 +9931,7 @@
         <v>2.6</v>
       </c>
       <c r="K17">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -10096,7 +10090,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10351,7 +10345,7 @@
         <v>488</v>
       </c>
       <c r="IN17">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10402,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10411,7 +10405,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:290">
@@ -10424,7 +10418,7 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
@@ -10596,7 +10590,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10878,7 +10872,7 @@
         <v>488</v>
       </c>
       <c r="IN18">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10929,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10938,7 +10932,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:290">
@@ -10951,11 +10945,11 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
-        <v>3</v>
+      <c r="G19">
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -10964,7 +10958,7 @@
         <v>2.6</v>
       </c>
       <c r="K19">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11123,7 +11117,7 @@
         <v>50</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11429,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11438,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:290">
@@ -11451,11 +11445,14 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>3</v>
+      <c r="F20" t="s">
+        <v>328</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11464,7 +11461,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11608,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11851,7 +11848,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11860,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:290">
@@ -11873,7 +11870,7 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4</v>
       </c>
       <c r="H21">
@@ -12030,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12222,7 +12219,7 @@
         <v>488</v>
       </c>
       <c r="IN21">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12273,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12282,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:290">
@@ -12295,11 +12292,14 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>3</v>
+      <c r="F22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12308,7 +12308,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12452,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12644,7 +12644,7 @@
         <v>488</v>
       </c>
       <c r="IN22">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -12695,7 +12695,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12704,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:290">
@@ -12717,11 +12717,11 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>4</v>
+      <c r="G23">
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12730,7 +12730,7 @@
         <v>2.6</v>
       </c>
       <c r="K23">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -12889,7 +12889,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13228,7 +13228,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13243,7 +13243,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>506</v>
@@ -13283,7 +13283,7 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
@@ -13455,7 +13455,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13761,7 +13761,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13770,7 +13770,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:290">
@@ -13783,11 +13783,11 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
-        <v>4</v>
+      <c r="G25">
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -13796,7 +13796,7 @@
         <v>2.6</v>
       </c>
       <c r="K25">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -13955,7 +13955,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14210,7 +14210,7 @@
         <v>488</v>
       </c>
       <c r="IN25">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14261,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14270,7 +14270,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:290">
@@ -14283,11 +14283,11 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="s">
+        <v>328</v>
+      </c>
+      <c r="G26">
         <v>4</v>
-      </c>
-      <c r="G26" t="s">
-        <v>328</v>
       </c>
       <c r="H26">
         <v>130</v>
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14635,7 +14635,7 @@
         <v>488</v>
       </c>
       <c r="IN26">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -14686,7 +14686,7 @@
         <v>0</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14695,7 +14695,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:290">
@@ -14708,7 +14708,7 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
@@ -14880,7 +14880,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15162,7 +15162,7 @@
         <v>488</v>
       </c>
       <c r="IN27">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15222,7 +15222,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:290">
@@ -15235,7 +15235,7 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
@@ -15407,7 +15407,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15689,7 +15689,7 @@
         <v>488</v>
       </c>
       <c r="IN28">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -15746,7 +15746,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15755,7 +15755,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:290">
@@ -15768,7 +15768,7 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>4</v>
       </c>
       <c r="H29">
@@ -15940,7 +15940,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16225,7 +16225,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16234,7 +16234,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:290">
@@ -16247,11 +16247,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>4</v>
+      <c r="G30">
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16260,7 +16260,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16419,7 +16419,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16701,7 +16701,7 @@
         <v>488</v>
       </c>
       <c r="IN30">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -16752,7 +16752,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16761,7 +16761,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM30" t="s">
         <v>507</v>
@@ -16828,11 +16828,11 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
-        <v>4</v>
+      <c r="G31">
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -16841,7 +16841,7 @@
         <v>2.6</v>
       </c>
       <c r="K31">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -17000,7 +17000,7 @@
         <v>41</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17282,7 +17282,7 @@
         <v>488</v>
       </c>
       <c r="IN31">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17339,7 +17339,7 @@
         <v>41</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17348,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM31" t="s">
         <v>508</v>
@@ -17415,11 +17415,11 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>4</v>
+      <c r="G32">
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17428,7 +17428,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17587,7 +17587,7 @@
         <v>65</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17869,7 +17869,7 @@
         <v>488</v>
       </c>
       <c r="IN32">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17926,7 +17926,7 @@
         <v>64</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH32">
         <v>4000</v>
@@ -17941,7 +17941,7 @@
         <v>65</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17954,11 +17954,11 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
-        <v>3</v>
+      <c r="G33">
+        <v>4</v>
       </c>
       <c r="H33">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I33">
         <v>2</v>
@@ -17967,7 +17967,7 @@
         <v>2.6</v>
       </c>
       <c r="K33">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -18126,7 +18126,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18408,7 +18408,7 @@
         <v>488</v>
       </c>
       <c r="IN33">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18459,7 +18459,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18468,7 +18468,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18481,11 +18481,11 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>3</v>
+      <c r="G34">
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18494,7 +18494,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18653,7 +18653,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18935,7 +18935,7 @@
         <v>488</v>
       </c>
       <c r="IN34">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -18986,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18995,7 +18995,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>509</v>
@@ -19062,14 +19062,14 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>328</v>
       </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
       <c r="H35">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -19078,7 +19078,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -19222,7 +19222,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19414,7 +19414,7 @@
         <v>488</v>
       </c>
       <c r="IN35">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19465,7 +19465,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19474,7 +19474,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19487,11 +19487,14 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>3</v>
+      <c r="F36" t="s">
+        <v>328</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
       </c>
       <c r="H36">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19500,7 +19503,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19644,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19836,7 +19839,7 @@
         <v>488</v>
       </c>
       <c r="IN36">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -19887,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19896,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19909,11 +19912,11 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>3</v>
+      <c r="G37">
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -19922,7 +19925,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -20081,7 +20084,7 @@
         <v>90</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -20420,7 +20423,7 @@
         <v>71</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH37">
         <v>10600</v>
@@ -20435,7 +20438,7 @@
         <v>71</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20448,11 +20451,11 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
-        <v>4</v>
+      <c r="G38">
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -20461,7 +20464,7 @@
         <v>2.6</v>
       </c>
       <c r="K38">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -20620,7 +20623,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20902,7 +20905,7 @@
         <v>488</v>
       </c>
       <c r="IN38">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20953,7 +20956,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20962,7 +20965,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20975,11 +20978,11 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
-        <v>3</v>
+      <c r="G39">
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -20988,7 +20991,7 @@
         <v>2.6</v>
       </c>
       <c r="K39">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -21147,7 +21150,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21429,7 +21432,7 @@
         <v>488</v>
       </c>
       <c r="IN39">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21486,7 +21489,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21495,7 +21498,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21508,14 +21511,11 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" t="s">
-        <v>328</v>
+      <c r="G40">
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -21524,7 +21524,7 @@
         <v>2.6</v>
       </c>
       <c r="K40">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21860,7 +21860,7 @@
         <v>488</v>
       </c>
       <c r="IN40">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21920,7 +21920,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21953,7 +21953,7 @@
         <v>514</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>515</v>
@@ -22081,7 +22081,7 @@
         <v>488</v>
       </c>
       <c r="V2">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="W2">
         <v>1</v>
